--- a/spatial_input/CAPLINA.xlsx
+++ b/spatial_input/CAPLINA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bryan\Documents\AGUA2\tablas_coordenadas_observatorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bryan\Documents\AGUA2\spatial_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{538FBBF2-CADB-4965-BF3B-73AA29345ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD474A0-D8F1-42DA-997D-89F98E338AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="617" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="617" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte N° 1" sheetId="15" r:id="rId1"/>
@@ -169,9 +169,6 @@
     <t>QToqu2</t>
   </si>
   <si>
-    <t>QuebradaToquela, aprox. 3 Km aguas abajo del vertimiento Challaviento.</t>
-  </si>
-  <si>
     <t>Río</t>
   </si>
   <si>
@@ -206,6 +203,9 @@
   </si>
   <si>
     <t>Rio Caplina, aguas debajo de la union del rio Caplina con Qda. Palca.</t>
+  </si>
+  <si>
+    <t>Quebrada Toquela, aprox. 3 Km aguas abajo del vertimiento Challaviento.</t>
   </si>
 </sst>
 </file>
@@ -302,18 +302,6 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -334,6 +322,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -695,28 +695,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="26" style="7" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="36.85546875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="23.85546875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="26.140625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="27.42578125" style="7" customWidth="1"/>
-    <col min="11" max="11" width="22.28515625" style="7" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" style="7" customWidth="1"/>
-    <col min="13" max="13" width="21.7109375" style="7" customWidth="1"/>
-    <col min="14" max="14" width="23.5703125" style="7" customWidth="1"/>
-    <col min="15" max="15" width="21.42578125" style="7" customWidth="1"/>
-    <col min="16" max="16" width="37.140625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="36.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="26.140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="27.42578125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="22.28515625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="21.7109375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="23.5703125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="21.42578125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="37.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -724,27 +724,27 @@
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
     </row>
     <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
+      <c r="A6" s="2"/>
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6"/>
@@ -762,721 +762,721 @@
       <c r="P6"/>
     </row>
     <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
     </row>
     <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
     </row>
     <row r="10" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="L10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="11" t="s">
+      <c r="M10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="N10" s="11" t="s">
+      <c r="N10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="O10" s="11" t="s">
+      <c r="O10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="P10" s="11" t="s">
+      <c r="P10" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="5" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:17" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11" s="9" t="s">
+      <c r="I11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L11" s="10">
-        <v>19</v>
-      </c>
-      <c r="M11" s="10">
+      <c r="L11" s="6">
+        <v>19</v>
+      </c>
+      <c r="M11" s="6">
         <v>398501</v>
       </c>
-      <c r="N11" s="10">
+      <c r="N11" s="6">
         <v>8051665</v>
       </c>
-      <c r="O11" s="10">
+      <c r="O11" s="6">
         <v>3500</v>
       </c>
-      <c r="P11" s="9" t="s">
+      <c r="P11" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K12" s="9" t="s">
+      <c r="I12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L12" s="10">
-        <v>19</v>
-      </c>
-      <c r="M12" s="10">
+      <c r="L12" s="6">
+        <v>19</v>
+      </c>
+      <c r="M12" s="6">
         <v>411482</v>
       </c>
-      <c r="N12" s="10">
+      <c r="N12" s="6">
         <v>8042498</v>
       </c>
-      <c r="O12" s="10">
+      <c r="O12" s="6">
         <v>4485</v>
       </c>
-      <c r="P12" s="9" t="s">
+      <c r="P12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Q12" s="5"/>
+      <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="9" t="s">
+      <c r="B13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K13" s="9" t="s">
+      <c r="I13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L13" s="10">
-        <v>19</v>
-      </c>
-      <c r="M13" s="10">
+      <c r="L13" s="6">
+        <v>19</v>
+      </c>
+      <c r="M13" s="6">
         <v>400195</v>
       </c>
-      <c r="N13" s="10">
+      <c r="N13" s="6">
         <v>8035310</v>
       </c>
-      <c r="O13" s="10">
+      <c r="O13" s="6">
         <v>3109</v>
       </c>
-      <c r="P13" s="9" t="s">
+      <c r="P13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Q13" s="5"/>
+      <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="9" t="s">
+      <c r="B14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I14" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K14" s="9" t="s">
+      <c r="I14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L14" s="10">
-        <v>19</v>
-      </c>
-      <c r="M14" s="10">
+      <c r="L14" s="6">
+        <v>19</v>
+      </c>
+      <c r="M14" s="6">
         <v>396267</v>
       </c>
-      <c r="N14" s="10">
+      <c r="N14" s="6">
         <v>8032224</v>
       </c>
-      <c r="O14" s="10">
+      <c r="O14" s="6">
         <v>2700</v>
       </c>
-      <c r="P14" s="9" t="s">
+      <c r="P14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Q14" s="5"/>
+      <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="9" t="s">
+      <c r="B15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K15" s="9" t="s">
+      <c r="I15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L15" s="10">
-        <v>19</v>
-      </c>
-      <c r="M15" s="10">
+      <c r="L15" s="6">
+        <v>19</v>
+      </c>
+      <c r="M15" s="6">
         <v>411649</v>
       </c>
-      <c r="N15" s="10">
+      <c r="N15" s="6">
         <v>8052761</v>
       </c>
-      <c r="O15" s="10">
+      <c r="O15" s="6">
         <v>4558</v>
       </c>
-      <c r="P15" s="9" t="s">
+      <c r="P15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Q15" s="5"/>
+      <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="B16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I16" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K16" s="9" t="s">
+      <c r="I16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L16" s="10">
-        <v>19</v>
-      </c>
-      <c r="M16" s="10">
+      <c r="L16" s="6">
+        <v>19</v>
+      </c>
+      <c r="M16" s="6">
         <v>399816</v>
       </c>
-      <c r="N16" s="10">
+      <c r="N16" s="6">
         <v>8048609</v>
       </c>
-      <c r="O16" s="10">
+      <c r="O16" s="6">
         <v>3284</v>
       </c>
-      <c r="P16" s="9" t="s">
+      <c r="P16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Q16" s="5"/>
+      <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="9" t="s">
+      <c r="B17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" s="6">
+        <v>19</v>
+      </c>
+      <c r="M17" s="6">
+        <v>399329</v>
+      </c>
+      <c r="N17" s="6">
+        <v>8048526</v>
+      </c>
+      <c r="O17" s="6">
+        <v>3151</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K17" s="9" t="s">
+      <c r="F18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L17" s="10">
-        <v>19</v>
-      </c>
-      <c r="M17" s="10">
-        <v>399329</v>
-      </c>
-      <c r="N17" s="10">
-        <v>8048526</v>
-      </c>
-      <c r="O17" s="10">
-        <v>3151</v>
-      </c>
-      <c r="P17" s="9" t="s">
+      <c r="L18" s="6">
+        <v>19</v>
+      </c>
+      <c r="M18" s="6">
+        <v>401912</v>
+      </c>
+      <c r="N18" s="6">
+        <v>8043657</v>
+      </c>
+      <c r="O18" s="6">
+        <v>3448</v>
+      </c>
+      <c r="P18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Q17" s="5"/>
-    </row>
-    <row r="18" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="9" t="s">
+      <c r="B19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="9" t="s">
+      <c r="G19" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="I18" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K18" s="9" t="s">
+      <c r="H19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L18" s="10">
-        <v>19</v>
-      </c>
-      <c r="M18" s="10">
-        <v>401912</v>
-      </c>
-      <c r="N18" s="10">
-        <v>8043657</v>
-      </c>
-      <c r="O18" s="10">
-        <v>3448</v>
-      </c>
-      <c r="P18" s="9" t="s">
+      <c r="L19" s="6">
+        <v>19</v>
+      </c>
+      <c r="M19" s="6">
+        <v>400079</v>
+      </c>
+      <c r="N19" s="6">
+        <v>8043627</v>
+      </c>
+      <c r="O19" s="6">
+        <v>3218</v>
+      </c>
+      <c r="P19" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Q18" s="5"/>
-    </row>
-    <row r="19" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="9" t="s">
+      <c r="B20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H19" s="9" t="s">
+      <c r="G20" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I19" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K19" s="9" t="s">
+      <c r="H20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L19" s="10">
-        <v>19</v>
-      </c>
-      <c r="M19" s="10">
-        <v>400079</v>
-      </c>
-      <c r="N19" s="10">
-        <v>8043627</v>
-      </c>
-      <c r="O19" s="10">
-        <v>3218</v>
-      </c>
-      <c r="P19" s="9" t="s">
+      <c r="L20" s="6">
+        <v>19</v>
+      </c>
+      <c r="M20" s="6">
+        <v>383538</v>
+      </c>
+      <c r="N20" s="6">
+        <v>8029925</v>
+      </c>
+      <c r="O20" s="6">
+        <v>1540</v>
+      </c>
+      <c r="P20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Q19" s="5"/>
-    </row>
-    <row r="20" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="9" t="s">
+      <c r="B21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E21" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="H20" s="9" t="s">
+      <c r="G21" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I20" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K20" s="9" t="s">
+      <c r="H21" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L20" s="10">
-        <v>19</v>
-      </c>
-      <c r="M20" s="10">
-        <v>383538</v>
-      </c>
-      <c r="N20" s="10">
-        <v>8029925</v>
-      </c>
-      <c r="O20" s="10">
-        <v>1540</v>
-      </c>
-      <c r="P20" s="9" t="s">
+      <c r="L21" s="6">
+        <v>19</v>
+      </c>
+      <c r="M21" s="6">
+        <v>387520</v>
+      </c>
+      <c r="N21" s="6">
+        <v>8035439</v>
+      </c>
+      <c r="O21" s="6">
+        <v>1865</v>
+      </c>
+      <c r="P21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Q20" s="5"/>
-    </row>
-    <row r="21" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="9" t="s">
+      <c r="B22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H21" s="9" t="s">
+      <c r="G22" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="I21" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="L21" s="10">
-        <v>19</v>
-      </c>
-      <c r="M21" s="10">
-        <v>387520</v>
-      </c>
-      <c r="N21" s="10">
-        <v>8035439</v>
-      </c>
-      <c r="O21" s="10">
-        <v>1865</v>
-      </c>
-      <c r="P21" s="9" t="s">
+      <c r="H22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L22" s="6">
+        <v>19</v>
+      </c>
+      <c r="M22" s="6">
+        <v>380011</v>
+      </c>
+      <c r="N22" s="6">
+        <v>8023677</v>
+      </c>
+      <c r="O22" s="6">
+        <v>1222</v>
+      </c>
+      <c r="P22" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Q21" s="5"/>
-    </row>
-    <row r="22" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L22" s="10">
-        <v>19</v>
-      </c>
-      <c r="M22" s="10">
-        <v>380011</v>
-      </c>
-      <c r="N22" s="10">
-        <v>8023677</v>
-      </c>
-      <c r="O22" s="10">
-        <v>1222</v>
-      </c>
-      <c r="P22" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q22" s="5"/>
+      <c r="Q22" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
